--- a/analysis/post_gemini_data/participant300/Sheet3.xlsx
+++ b/analysis/post_gemini_data/participant300/Sheet3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,610 +422,1028 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>arg4</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>arg5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>arg6</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>arg7</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>args</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>assign2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>assign3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>conbody2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>condbody2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>condstate3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>extranl2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>condstate2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>external2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>extrnal</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>literal2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>literal3</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>literal4</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>loopstate</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>loopstae</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>loopstae3</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>loopstate2</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>methodcall4</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>methodcall5</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>methodcall6</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>methodcall7</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>methodcall8</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>var1</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>var10</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>var11</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>var12</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>var13</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>var14</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>var4</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>var5</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>var6</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>var7</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>var8</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>var9</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>arg3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>conbody2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>condbody</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>condstate</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>condstate3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>extranl2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>loopbody</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>loopstate</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>methodcall</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>methodcall2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>methodcall3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
+        <v>11</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
+        <v>302</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>3</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>14</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>116.81</v>
+      </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
+        <v>717.45</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>182.84</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>283.64</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>1301.39</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1184.61</v>
+      </c>
       <c r="L5" t="n">
-        <v>101</v>
+        <v>24792.49</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>4721.5</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2135.42</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>1184.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>250.2</v>
+      </c>
       <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>200.19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>77151.02</v>
+      </c>
       <c r="T5" t="n">
-        <v>74</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+        <v>834.27</v>
+      </c>
+      <c r="U5" t="n">
+        <v>116.81</v>
+      </c>
+      <c r="V5" t="n">
+        <v>717.45</v>
+      </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>13163.23</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5038.95</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>517.21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1017.69</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>182.84</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>1117.67</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>166.88</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5756.27</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>16835.22</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>150.15</v>
+      </c>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>200.19</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>216.88</v>
+      </c>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="n">
+        <v>367.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05</v>
+      </c>
       <c r="C6" t="n">
-        <v>450.52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>250.31</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12513.84</v>
-      </c>
-      <c r="F6" t="n">
-        <v>250.31</v>
-      </c>
+        <v>0.33</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1784.95</v>
+        <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>3304.48</v>
+        <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>2652.55</v>
+        <v>0.6</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.55</v>
+      </c>
       <c r="L6" t="n">
-        <v>22440.29</v>
+        <v>11.43</v>
       </c>
       <c r="M6" t="n">
-        <v>6540.47</v>
+        <v>2.18</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>633.66</v>
+        <v>0.98</v>
       </c>
       <c r="P6" t="n">
-        <v>1334.43</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>0.55</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.12</v>
+      </c>
       <c r="R6" t="n">
-        <v>2369.25</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>0.09</v>
+      </c>
+      <c r="S6" t="n">
+        <v>35.57</v>
+      </c>
       <c r="T6" t="n">
-        <v>15249.24</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+        <v>0.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.33</v>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>116.81</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.22</v>
-      </c>
+        <v>239.15</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>182.84</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>283.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.34</v>
+        <v>325.35</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>197.44</v>
+      </c>
       <c r="L7" t="n">
-        <v>19.81</v>
+        <v>240.7</v>
       </c>
       <c r="M7" t="n">
-        <v>5.77</v>
+        <v>224.83</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>0.5600000000000001</v>
+        <v>194.13</v>
       </c>
       <c r="P7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>296.11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>125.1</v>
+      </c>
       <c r="R7" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>200.19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>255.47</v>
+      </c>
       <c r="T7" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+        <v>278.09</v>
+      </c>
+      <c r="U7" t="n">
+        <v>116.81</v>
+      </c>
+      <c r="V7" t="n">
+        <v>239.15</v>
+      </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>248.36</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>314.93</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>258.6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>254.42</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>182.84</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>279.42</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>166.88</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>274.11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>243.99</v>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>150.15</v>
+      </c>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>200.19</v>
+      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>216.88</v>
+      </c>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="n">
+        <v>367.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>116.81</v>
+      </c>
       <c r="C8" t="n">
-        <v>450.52</v>
-      </c>
-      <c r="D8" t="n">
-        <v>250.31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>391.06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>250.31</v>
-      </c>
+        <v>450.54</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>356.99</v>
+        <v>182.84</v>
       </c>
       <c r="H8" t="n">
-        <v>472.07</v>
+        <v>283.64</v>
       </c>
       <c r="I8" t="n">
-        <v>331.57</v>
+        <v>283.64</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>150.15</v>
+      </c>
       <c r="L8" t="n">
-        <v>222.18</v>
+        <v>183.56</v>
       </c>
       <c r="M8" t="n">
-        <v>327.02</v>
+        <v>150.15</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>211.22</v>
+        <v>116.72</v>
       </c>
       <c r="P8" t="n">
-        <v>333.61</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>200.19</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>116.72</v>
+      </c>
       <c r="R8" t="n">
-        <v>473.85</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>200.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>283.46</v>
+      </c>
       <c r="T8" t="n">
-        <v>206.07</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+        <v>166.88</v>
+      </c>
+      <c r="U8" t="n">
+        <v>116.81</v>
+      </c>
+      <c r="V8" t="n">
+        <v>450.54</v>
+      </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>450.52</v>
-      </c>
-      <c r="D9" t="n">
-        <v>250.31</v>
-      </c>
-      <c r="E9" t="n">
-        <v>500.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>250.31</v>
-      </c>
-      <c r="G9" t="n">
-        <v>350.08</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="X8" t="n">
+        <v>150.15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>300.28</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>150.15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>100.28</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>182.84</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>216.88</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>166.88</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>250.33</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>99.98</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>150.15</v>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="n">
         <v>200.19</v>
       </c>
-      <c r="I9" t="n">
-        <v>350.38</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>51.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>200.19</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>200.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>350.08</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>467.19</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>200.18</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="n">
+        <v>216.88</v>
+      </c>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="n">
+        <v>367.06</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
